--- a/data/trans_orig/P36B17_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B17_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14594755-ECE2-4D3D-8E84-BECEF2F2A7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA4E5300-0873-4A27-B826-55F5721A550C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D7F595AF-1248-4701-827A-93A00045326E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A051839E-7837-4301-84BE-7909794D469B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>11,95%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
   </si>
   <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,1138 +104,1138 @@
     <t>22,32%</t>
   </si>
   <si>
-    <t>17,26%</t>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
   </si>
   <si>
     <t>27,71%</t>
   </si>
   <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>5,87%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1650,7 +1650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B3FCC3-81E4-4AF3-94AB-96B5B0800F74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16095417-FAE8-45A8-BDB7-78DBD5622265}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1993,13 +1993,13 @@
         <v>1285</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2008,13 +2008,13 @@
         <v>1285</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,13 +2029,13 @@
         <v>260298</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>538</v>
@@ -2044,13 +2044,13 @@
         <v>271403</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>869</v>
@@ -2059,18 +2059,18 @@
         <v>531700</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2082,13 +2082,13 @@
         <v>88716</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>132</v>
@@ -2097,13 +2097,13 @@
         <v>95583</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>202</v>
@@ -2112,13 +2112,13 @@
         <v>184300</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,13 +2133,13 @@
         <v>170923</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>276</v>
@@ -2148,13 +2148,13 @@
         <v>208890</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>408</v>
@@ -2163,13 +2163,13 @@
         <v>379814</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,13 +2184,13 @@
         <v>217303</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>262</v>
@@ -2199,13 +2199,13 @@
         <v>214406</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>414</v>
@@ -2214,13 +2214,13 @@
         <v>431709</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2235,13 @@
         <v>42354</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -2250,13 +2250,13 @@
         <v>32732</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -2265,13 +2265,13 @@
         <v>75086</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,7 +2292,7 @@
         <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2301,13 +2301,13 @@
         <v>2955</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -2316,13 +2316,13 @@
         <v>2955</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2337,13 @@
         <v>519297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>717</v>
@@ -2352,13 +2352,13 @@
         <v>554566</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>1099</v>
@@ -2367,18 +2367,18 @@
         <v>1073864</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2390,13 +2390,13 @@
         <v>108405</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -2405,13 +2405,13 @@
         <v>152752</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>376</v>
@@ -2420,13 +2420,13 @@
         <v>261157</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,7 +2441,7 @@
         <v>88550</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>112</v>
@@ -2525,10 +2525,10 @@
         <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2543,13 @@
         <v>22499</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -2558,13 +2558,13 @@
         <v>20139</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -2573,13 +2573,13 @@
         <v>42637</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2594,13 @@
         <v>2688</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2609,13 +2609,13 @@
         <v>4483</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -2624,13 +2624,13 @@
         <v>7171</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2645,13 @@
         <v>319506</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>527</v>
@@ -2660,13 +2660,13 @@
         <v>365796</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>884</v>
@@ -2675,18 +2675,18 @@
         <v>685302</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2698,13 +2698,13 @@
         <v>74524</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>185</v>
@@ -2713,13 +2713,13 @@
         <v>97656</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>265</v>
@@ -2728,13 +2728,13 @@
         <v>172181</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2749,13 @@
         <v>118340</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>224</v>
@@ -2764,13 +2764,13 @@
         <v>156422</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>335</v>
@@ -2779,13 +2779,13 @@
         <v>274763</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2800,13 @@
         <v>109229</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>163</v>
@@ -2815,13 +2815,13 @@
         <v>151353</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>250</v>
@@ -2830,13 +2830,13 @@
         <v>260582</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2851,13 @@
         <v>17323</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -2866,13 +2866,13 @@
         <v>17877</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -2881,13 +2881,13 @@
         <v>35200</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2902,13 @@
         <v>2034</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2917,10 +2917,10 @@
         <v>3226</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>185</v>
@@ -2932,10 +2932,10 @@
         <v>5260</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>187</v>
@@ -2953,13 +2953,13 @@
         <v>321451</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>595</v>
@@ -2968,13 +2968,13 @@
         <v>426534</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>886</v>
@@ -2983,13 +2983,13 @@
         <v>747986</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3144,7 @@
         <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3159,13 @@
         <v>4328</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -3174,13 +3174,13 @@
         <v>2191</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>49</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -3189,13 +3189,13 @@
         <v>6519</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,7 +3216,7 @@
         <v>51</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3225,13 +3225,13 @@
         <v>802</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3240,13 +3240,13 @@
         <v>802</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3261,13 @@
         <v>196748</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>491</v>
@@ -3276,13 +3276,13 @@
         <v>231496</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>770</v>
@@ -3291,18 +3291,18 @@
         <v>428244</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3314,13 +3314,13 @@
         <v>87622</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>232</v>
@@ -3329,13 +3329,13 @@
         <v>114401</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>381</v>
@@ -3344,13 +3344,13 @@
         <v>202024</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3365,13 @@
         <v>88199</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>151</v>
@@ -3380,13 +3380,13 @@
         <v>105286</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>262</v>
@@ -3395,13 +3395,13 @@
         <v>193485</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3416,13 @@
         <v>80928</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>63</v>
@@ -3431,13 +3431,13 @@
         <v>45361</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>150</v>
@@ -3446,13 +3446,13 @@
         <v>126289</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3467,13 @@
         <v>18205</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -3482,13 +3482,13 @@
         <v>10018</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -3497,13 +3497,13 @@
         <v>28223</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3518,13 @@
         <v>2269</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3533,13 +3533,13 @@
         <v>556</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -3548,13 +3548,13 @@
         <v>2824</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3569,13 @@
         <v>277223</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>460</v>
@@ -3584,13 +3584,13 @@
         <v>275622</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>831</v>
@@ -3599,18 +3599,18 @@
         <v>552845</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3622,13 +3622,13 @@
         <v>250773</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H40" s="7">
         <v>438</v>
@@ -3637,13 +3637,13 @@
         <v>401839</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M40" s="7">
         <v>693</v>
@@ -3652,13 +3652,13 @@
         <v>652612</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3673,13 @@
         <v>198977</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H41" s="7">
         <v>303</v>
@@ -3688,13 +3688,13 @@
         <v>221916</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M41" s="7">
         <v>498</v>
@@ -3703,13 +3703,13 @@
         <v>420893</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3724,13 @@
         <v>126748</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H42" s="7">
         <v>174</v>
@@ -3739,13 +3739,13 @@
         <v>141802</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M42" s="7">
         <v>281</v>
@@ -3754,13 +3754,13 @@
         <v>268550</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3775,13 @@
         <v>37541</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H43" s="7">
         <v>32</v>
@@ -3790,7 +3790,7 @@
         <v>28276</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>301</v>
@@ -3811,7 +3811,7 @@
         <v>304</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>305</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3826,13 @@
         <v>12837</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="G44" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="H44" s="7">
         <v>11</v>
@@ -3841,13 +3841,13 @@
         <v>8824</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M44" s="7">
         <v>20</v>
@@ -3856,7 +3856,7 @@
         <v>21661</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>310</v>
@@ -3877,13 +3877,13 @@
         <v>626875</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>958</v>
@@ -3892,13 +3892,13 @@
         <v>802658</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>1556</v>
@@ -3907,13 +3907,13 @@
         <v>1429533</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,7 +4038,7 @@
         <v>332</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>242</v>
+        <v>333</v>
       </c>
       <c r="H48" s="7">
         <v>292</v>
@@ -4047,13 +4047,13 @@
         <v>250417</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M48" s="7">
         <v>524</v>
@@ -4062,13 +4062,13 @@
         <v>501593</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4083,13 @@
         <v>94947</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H49" s="7">
         <v>70</v>
@@ -4098,13 +4098,13 @@
         <v>67484</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M49" s="7">
         <v>146</v>
@@ -4113,13 +4113,13 @@
         <v>162431</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4134,13 @@
         <v>119022</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="H50" s="7">
         <v>29</v>
@@ -4185,13 +4185,13 @@
         <v>859428</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H51" s="7">
         <v>1062</v>
@@ -4200,13 +4200,13 @@
         <v>868434</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M51" s="7">
         <v>1824</v>
@@ -4215,13 +4215,13 @@
         <v>1727862</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,7 +4244,7 @@
         <v>358</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>359</v>
+        <v>189</v>
       </c>
       <c r="H52" s="7">
         <v>1743</v>
@@ -4253,13 +4253,13 @@
         <v>1182155</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="L52" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M52" s="7">
         <v>2737</v>
@@ -4268,13 +4268,13 @@
         <v>2046994</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="Q52" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4289,13 @@
         <v>1064746</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H53" s="7">
         <v>1940</v>
@@ -4304,7 +4304,7 @@
         <v>1320327</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>369</v>
@@ -4373,10 +4373,10 @@
         <v>380</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4391,13 @@
         <v>239094</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H55" s="7">
         <v>214</v>
@@ -4406,13 +4406,13 @@
         <v>182282</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M55" s="7">
         <v>412</v>
@@ -4421,13 +4421,13 @@
         <v>421377</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>390</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4493,13 @@
         <v>3380826</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H57" s="7">
         <v>5348</v>
@@ -4508,13 +4508,13 @@
         <v>3796510</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M57" s="7">
         <v>8719</v>
@@ -4523,13 +4523,13 @@
         <v>7177336</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B17_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B17_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA4E5300-0873-4A27-B826-55F5721A550C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF597C2D-96ED-48AA-86E5-E9DAE6C1B1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A051839E-7837-4301-84BE-7909794D469B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{41DF9A8E-E1F0-4E05-BAA5-A4AE958E5697}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1650,7 +1650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16095417-FAE8-45A8-BDB7-78DBD5622265}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5933B9-3748-4DF5-885D-B67232167030}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P36B17_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B17_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF597C2D-96ED-48AA-86E5-E9DAE6C1B1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26FD89DB-74E5-42C5-A73E-E83E068E5DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{41DF9A8E-E1F0-4E05-BAA5-A4AE958E5697}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8DC45A8-631F-4E10-AA18-6169A0F1D0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>11,95%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
   </si>
   <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>22,32%</t>
   </si>
   <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
   </si>
   <si>
     <t>24,09%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,28 +134,28 @@
     <t>65,0%</t>
   </si>
   <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
   </si>
   <si>
     <t>58,06%</t>
   </si>
   <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
   </si>
   <si>
     <t>61,46%</t>
   </si>
   <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -167,682 +167,688 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,96%</t>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>27,37%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -851,391 +857,385 @@
     <t>40,0%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
   </si>
   <si>
     <t>50,06%</t>
   </si>
   <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
   </si>
   <si>
     <t>45,65%</t>
   </si>
   <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
+    <t>33,14%</t>
   </si>
   <si>
     <t>29,44%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
   </si>
   <si>
     <t>20,22%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>4,6%</t>
   </si>
   <si>
-    <t>3,28%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>1,77%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1650,7 +1650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5933B9-3748-4DF5-885D-B67232167030}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FC55E2-35DD-4F20-AAEF-A0C831242511}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1993,13 +1993,13 @@
         <v>1285</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2008,13 +2008,13 @@
         <v>1285</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,13 +2029,13 @@
         <v>260298</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>538</v>
@@ -2044,13 +2044,13 @@
         <v>271403</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>869</v>
@@ -2059,18 +2059,18 @@
         <v>531700</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2082,13 +2082,13 @@
         <v>88716</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>132</v>
@@ -2097,13 +2097,13 @@
         <v>95583</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>202</v>
@@ -2112,13 +2112,13 @@
         <v>184300</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,13 +2133,13 @@
         <v>170923</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>276</v>
@@ -2148,13 +2148,13 @@
         <v>208890</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>408</v>
@@ -2163,13 +2163,13 @@
         <v>379814</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,13 +2184,13 @@
         <v>217303</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>262</v>
@@ -2199,13 +2199,13 @@
         <v>214406</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>414</v>
@@ -2214,13 +2214,13 @@
         <v>431709</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2235,13 @@
         <v>42354</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -2250,13 +2250,13 @@
         <v>32732</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -2265,13 +2265,13 @@
         <v>75086</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,7 +2292,7 @@
         <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2301,13 +2301,13 @@
         <v>2955</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -2316,13 +2316,13 @@
         <v>2955</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2337,13 @@
         <v>519297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>717</v>
@@ -2352,13 +2352,13 @@
         <v>554566</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>1099</v>
@@ -2367,18 +2367,18 @@
         <v>1073864</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2390,13 +2390,13 @@
         <v>108405</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -2405,13 +2405,13 @@
         <v>152752</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>376</v>
@@ -2420,13 +2420,13 @@
         <v>261157</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,7 +2441,7 @@
         <v>88550</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>112</v>
@@ -2525,10 +2525,10 @@
         <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2543,13 @@
         <v>22499</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -2558,13 +2558,13 @@
         <v>20139</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -2573,13 +2573,13 @@
         <v>42637</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2594,13 @@
         <v>2688</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2609,13 +2609,13 @@
         <v>4483</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -2624,13 +2624,13 @@
         <v>7171</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2645,13 @@
         <v>319506</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>527</v>
@@ -2660,13 +2660,13 @@
         <v>365796</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>884</v>
@@ -2675,18 +2675,18 @@
         <v>685302</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2698,13 +2698,13 @@
         <v>74524</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>185</v>
@@ -2713,13 +2713,13 @@
         <v>97656</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>265</v>
@@ -2728,13 +2728,13 @@
         <v>172181</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2749,13 @@
         <v>118340</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>224</v>
@@ -2764,13 +2764,13 @@
         <v>156422</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>335</v>
@@ -2779,13 +2779,13 @@
         <v>274763</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2800,13 @@
         <v>109229</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>163</v>
@@ -2815,13 +2815,13 @@
         <v>151353</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>250</v>
@@ -2830,13 +2830,13 @@
         <v>260582</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2851,13 @@
         <v>17323</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -2866,13 +2866,13 @@
         <v>17877</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -2881,13 +2881,13 @@
         <v>35200</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2902,13 @@
         <v>2034</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2917,10 +2917,10 @@
         <v>3226</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>185</v>
@@ -2932,10 +2932,10 @@
         <v>5260</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>187</v>
@@ -2953,13 +2953,13 @@
         <v>321451</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>595</v>
@@ -2968,13 +2968,13 @@
         <v>426534</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>886</v>
@@ -2983,13 +2983,13 @@
         <v>747986</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3144,7 @@
         <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3159,13 @@
         <v>4328</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -3174,13 +3174,13 @@
         <v>2191</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -3189,13 +3189,13 @@
         <v>6519</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,7 +3216,7 @@
         <v>51</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3225,13 +3225,13 @@
         <v>802</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3240,13 +3240,13 @@
         <v>802</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3261,13 @@
         <v>196748</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
         <v>491</v>
@@ -3276,13 +3276,13 @@
         <v>231496</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>770</v>
@@ -3291,18 +3291,18 @@
         <v>428244</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3314,13 +3314,13 @@
         <v>87622</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>232</v>
@@ -3329,13 +3329,13 @@
         <v>114401</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>381</v>
@@ -3344,13 +3344,13 @@
         <v>202024</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3365,13 @@
         <v>88199</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>151</v>
@@ -3380,13 +3380,13 @@
         <v>105286</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>262</v>
@@ -3395,13 +3395,13 @@
         <v>193485</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3416,13 @@
         <v>80928</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>63</v>
@@ -3431,13 +3431,13 @@
         <v>45361</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>150</v>
@@ -3446,13 +3446,13 @@
         <v>126289</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3467,13 @@
         <v>18205</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -3482,13 +3482,13 @@
         <v>10018</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -3497,13 +3497,13 @@
         <v>28223</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3518,13 @@
         <v>2269</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3533,13 +3533,13 @@
         <v>556</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -3548,13 +3548,13 @@
         <v>2824</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>143</v>
+        <v>268</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3569,13 @@
         <v>277223</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
         <v>460</v>
@@ -3584,13 +3584,13 @@
         <v>275622</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M39" s="7">
         <v>831</v>
@@ -3599,18 +3599,18 @@
         <v>552845</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3622,13 +3622,13 @@
         <v>250773</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H40" s="7">
         <v>438</v>
@@ -3637,13 +3637,13 @@
         <v>401839</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M40" s="7">
         <v>693</v>
@@ -3652,13 +3652,13 @@
         <v>652612</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3673,13 @@
         <v>198977</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H41" s="7">
         <v>303</v>
@@ -3688,13 +3688,13 @@
         <v>221916</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>283</v>
+        <v>22</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M41" s="7">
         <v>498</v>
@@ -3703,13 +3703,13 @@
         <v>420893</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3724,13 @@
         <v>126748</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H42" s="7">
         <v>174</v>
@@ -3739,13 +3739,13 @@
         <v>141802</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M42" s="7">
         <v>281</v>
@@ -3754,13 +3754,13 @@
         <v>268550</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3775,13 @@
         <v>37541</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H43" s="7">
         <v>32</v>
@@ -3790,7 +3790,7 @@
         <v>28276</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>301</v>
@@ -3811,7 +3811,7 @@
         <v>304</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>134</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3826,13 @@
         <v>12837</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="H44" s="7">
         <v>11</v>
@@ -3841,13 +3841,13 @@
         <v>8824</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>308</v>
+        <v>53</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>309</v>
+        <v>140</v>
       </c>
       <c r="M44" s="7">
         <v>20</v>
@@ -3856,7 +3856,7 @@
         <v>21661</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>310</v>
@@ -3877,13 +3877,13 @@
         <v>626875</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H45" s="7">
         <v>958</v>
@@ -3892,13 +3892,13 @@
         <v>802658</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M45" s="7">
         <v>1556</v>
@@ -3907,13 +3907,13 @@
         <v>1429533</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,7 +4038,7 @@
         <v>332</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>333</v>
+        <v>242</v>
       </c>
       <c r="H48" s="7">
         <v>292</v>
@@ -4047,13 +4047,13 @@
         <v>250417</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M48" s="7">
         <v>524</v>
@@ -4062,13 +4062,13 @@
         <v>501593</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4083,13 @@
         <v>94947</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H49" s="7">
         <v>70</v>
@@ -4098,13 +4098,13 @@
         <v>67484</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M49" s="7">
         <v>146</v>
@@ -4113,13 +4113,13 @@
         <v>162431</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4134,13 @@
         <v>119022</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H50" s="7">
         <v>29</v>
@@ -4185,13 +4185,13 @@
         <v>859428</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H51" s="7">
         <v>1062</v>
@@ -4200,13 +4200,13 @@
         <v>868434</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M51" s="7">
         <v>1824</v>
@@ -4215,13 +4215,13 @@
         <v>1727862</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,7 +4244,7 @@
         <v>358</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>189</v>
+        <v>359</v>
       </c>
       <c r="H52" s="7">
         <v>1743</v>
@@ -4253,13 +4253,13 @@
         <v>1182155</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M52" s="7">
         <v>2737</v>
@@ -4268,13 +4268,13 @@
         <v>2046994</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4289,13 @@
         <v>1064746</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H53" s="7">
         <v>1940</v>
@@ -4304,7 +4304,7 @@
         <v>1320327</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>368</v>
+        <v>249</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>369</v>
@@ -4373,10 +4373,10 @@
         <v>380</v>
       </c>
       <c r="P54" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4391,13 @@
         <v>239094</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H55" s="7">
         <v>214</v>
@@ -4406,13 +4406,13 @@
         <v>182282</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M55" s="7">
         <v>412</v>
@@ -4421,13 +4421,13 @@
         <v>421377</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4493,13 @@
         <v>3380826</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H57" s="7">
         <v>5348</v>
@@ -4508,13 +4508,13 @@
         <v>3796510</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M57" s="7">
         <v>8719</v>
@@ -4523,13 +4523,13 @@
         <v>7177336</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B17_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B17_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26FD89DB-74E5-42C5-A73E-E83E068E5DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02A9203B-72CE-44DC-B48D-41032A4A4359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8DC45A8-631F-4E10-AA18-6169A0F1D0FB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{584AA7CB-BF7B-4B37-9B40-37448B0D7E76}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="397">
   <si>
     <t>Población según el número de veces a la semana que consume patatas fritas y aperitivos salados en 2023 (Tasa respuesta: 99,73%)</t>
   </si>
@@ -71,1171 +71,1159 @@
     <t>Nunca o casi nunca</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>23,0%</t>
   </si>
   <si>
     <t>17,63%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1650,7 +1638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FC55E2-35DD-4F20-AAEF-A0C831242511}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4714177-A7DE-45BC-906D-FB56BBB4CEAE}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1771,7 +1759,7 @@
         <v>52</v>
       </c>
       <c r="D4" s="7">
-        <v>31108</v>
+        <v>35360</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1786,7 +1774,7 @@
         <v>85</v>
       </c>
       <c r="I4" s="7">
-        <v>38983</v>
+        <v>40342</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1801,7 +1789,7 @@
         <v>137</v>
       </c>
       <c r="N4" s="7">
-        <v>70091</v>
+        <v>75702</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1822,7 +1810,7 @@
         <v>75</v>
       </c>
       <c r="D5" s="7">
-        <v>58102</v>
+        <v>69672</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1837,7 +1825,7 @@
         <v>149</v>
       </c>
       <c r="I5" s="7">
-        <v>70004</v>
+        <v>73891</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1852,7 +1840,7 @@
         <v>224</v>
       </c>
       <c r="N5" s="7">
-        <v>128105</v>
+        <v>143563</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1873,7 +1861,7 @@
         <v>202</v>
       </c>
       <c r="D6" s="7">
-        <v>169192</v>
+        <v>204155</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1888,7 +1876,7 @@
         <v>298</v>
       </c>
       <c r="I6" s="7">
-        <v>157565</v>
+        <v>169865</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1903,7 +1891,7 @@
         <v>500</v>
       </c>
       <c r="N6" s="7">
-        <v>326756</v>
+        <v>374020</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1924,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1896</v>
+        <v>2256</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1939,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>3566</v>
+        <v>3955</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1954,22 +1942,22 @@
         <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>5462</v>
+        <v>6211</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1981,40 +1969,40 @@
         <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1285</v>
+        <v>1582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1285</v>
+        <v>1582</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,51 +2014,51 @@
         <v>331</v>
       </c>
       <c r="D9" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>538</v>
       </c>
       <c r="I9" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>869</v>
       </c>
       <c r="N9" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2079,46 +2067,46 @@
         <v>70</v>
       </c>
       <c r="D10" s="7">
-        <v>88716</v>
+        <v>86416</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>132</v>
       </c>
       <c r="I10" s="7">
-        <v>95583</v>
+        <v>87575</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>202</v>
       </c>
       <c r="N10" s="7">
-        <v>184300</v>
+        <v>173991</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,46 +2118,46 @@
         <v>132</v>
       </c>
       <c r="D11" s="7">
-        <v>170923</v>
+        <v>168107</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>276</v>
       </c>
       <c r="I11" s="7">
-        <v>208890</v>
+        <v>194142</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>408</v>
       </c>
       <c r="N11" s="7">
-        <v>379814</v>
+        <v>362249</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,46 +2169,46 @@
         <v>152</v>
       </c>
       <c r="D12" s="7">
-        <v>217303</v>
+        <v>220909</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>262</v>
       </c>
       <c r="I12" s="7">
-        <v>214406</v>
+        <v>200055</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>414</v>
       </c>
       <c r="N12" s="7">
-        <v>431709</v>
+        <v>420964</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,52 +2220,52 @@
         <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>42354</v>
+        <v>42958</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
       </c>
       <c r="I13" s="7">
-        <v>32732</v>
+        <v>30456</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
       </c>
       <c r="N13" s="7">
-        <v>75086</v>
+        <v>73414</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2289,40 +2277,40 @@
         <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>2955</v>
+        <v>2741</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>2955</v>
+        <v>2741</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,51 +2322,51 @@
         <v>382</v>
       </c>
       <c r="D15" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>717</v>
       </c>
       <c r="I15" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>1099</v>
       </c>
       <c r="N15" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2387,46 +2375,46 @@
         <v>139</v>
       </c>
       <c r="D16" s="7">
-        <v>108405</v>
+        <v>104740</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
       </c>
       <c r="I16" s="7">
-        <v>152752</v>
+        <v>141789</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>376</v>
       </c>
       <c r="N16" s="7">
-        <v>261157</v>
+        <v>246529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,46 +2426,46 @@
         <v>96</v>
       </c>
       <c r="D17" s="7">
-        <v>88550</v>
+        <v>87278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>143</v>
       </c>
       <c r="I17" s="7">
-        <v>102771</v>
+        <v>96555</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>239</v>
       </c>
       <c r="N17" s="7">
-        <v>191320</v>
+        <v>183833</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,46 +2477,46 @@
         <v>96</v>
       </c>
       <c r="D18" s="7">
-        <v>97365</v>
+        <v>96240</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>112</v>
       </c>
       <c r="I18" s="7">
-        <v>85651</v>
+        <v>80136</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>208</v>
       </c>
       <c r="N18" s="7">
-        <v>183015</v>
+        <v>176376</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,97 +2528,97 @@
         <v>23</v>
       </c>
       <c r="D19" s="7">
-        <v>22499</v>
+        <v>22412</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
       </c>
       <c r="I19" s="7">
-        <v>20139</v>
+        <v>19045</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
       </c>
       <c r="N19" s="7">
-        <v>42637</v>
+        <v>41457</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>2688</v>
+        <v>2588</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>4483</v>
+        <v>4198</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
       </c>
       <c r="N20" s="7">
-        <v>7171</v>
+        <v>6785</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,51 +2630,51 @@
         <v>357</v>
       </c>
       <c r="D21" s="7">
-        <v>319506</v>
+        <v>313257</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>527</v>
       </c>
       <c r="I21" s="7">
-        <v>365796</v>
+        <v>341723</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>884</v>
       </c>
       <c r="N21" s="7">
-        <v>685302</v>
+        <v>654980</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2695,46 +2683,46 @@
         <v>80</v>
       </c>
       <c r="D22" s="7">
-        <v>74524</v>
+        <v>71706</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>185</v>
       </c>
       <c r="I22" s="7">
-        <v>97656</v>
+        <v>90253</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>265</v>
       </c>
       <c r="N22" s="7">
-        <v>172181</v>
+        <v>161959</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,46 +2734,46 @@
         <v>111</v>
       </c>
       <c r="D23" s="7">
-        <v>118340</v>
+        <v>112928</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>224</v>
       </c>
       <c r="I23" s="7">
-        <v>156422</v>
+        <v>144849</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>335</v>
       </c>
       <c r="N23" s="7">
-        <v>274763</v>
+        <v>257777</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,46 +2785,46 @@
         <v>87</v>
       </c>
       <c r="D24" s="7">
-        <v>109229</v>
+        <v>105539</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>163</v>
       </c>
       <c r="I24" s="7">
-        <v>151353</v>
+        <v>219462</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>250</v>
       </c>
       <c r="N24" s="7">
-        <v>260582</v>
+        <v>325001</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,97 +2836,97 @@
         <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>17323</v>
+        <v>19708</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
       </c>
       <c r="I25" s="7">
-        <v>17877</v>
+        <v>16225</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
       </c>
       <c r="N25" s="7">
-        <v>35200</v>
+        <v>35934</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>2034</v>
+        <v>1918</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
       </c>
       <c r="I26" s="7">
-        <v>3226</v>
+        <v>3020</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
       </c>
       <c r="N26" s="7">
-        <v>5260</v>
+        <v>4939</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,51 +2938,51 @@
         <v>291</v>
       </c>
       <c r="D27" s="7">
-        <v>321451</v>
+        <v>311799</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>595</v>
       </c>
       <c r="I27" s="7">
-        <v>426534</v>
+        <v>473809</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>886</v>
       </c>
       <c r="N27" s="7">
-        <v>747986</v>
+        <v>785609</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3003,46 +2991,46 @@
         <v>72</v>
       </c>
       <c r="D28" s="7">
-        <v>53846</v>
+        <v>48566</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H28" s="7">
         <v>132</v>
       </c>
       <c r="I28" s="7">
-        <v>60151</v>
+        <v>54123</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M28" s="7">
         <v>204</v>
       </c>
       <c r="N28" s="7">
-        <v>113997</v>
+        <v>102689</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,46 +3042,46 @@
         <v>175</v>
       </c>
       <c r="D29" s="7">
-        <v>117217</v>
+        <v>106966</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>325</v>
       </c>
       <c r="I29" s="7">
-        <v>153298</v>
+        <v>137967</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>500</v>
       </c>
       <c r="N29" s="7">
-        <v>270515</v>
+        <v>244933</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,46 +3093,46 @@
         <v>27</v>
       </c>
       <c r="D30" s="7">
-        <v>21357</v>
+        <v>19315</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
       </c>
       <c r="I30" s="7">
-        <v>15055</v>
+        <v>13485</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>55</v>
       </c>
       <c r="N30" s="7">
-        <v>36412</v>
+        <v>32800</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,52 +3144,52 @@
         <v>5</v>
       </c>
       <c r="D31" s="7">
-        <v>4328</v>
+        <v>3894</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
       </c>
       <c r="I31" s="7">
-        <v>2191</v>
+        <v>1998</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
       </c>
       <c r="N31" s="7">
-        <v>6519</v>
+        <v>5892</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -3213,40 +3201,40 @@
         <v>42</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>802</v>
+        <v>702</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>802</v>
+        <v>702</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,46 +3246,46 @@
         <v>279</v>
       </c>
       <c r="D33" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>491</v>
       </c>
       <c r="I33" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>770</v>
       </c>
       <c r="N33" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,7 +3299,7 @@
         <v>149</v>
       </c>
       <c r="D34" s="7">
-        <v>87622</v>
+        <v>84237</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>229</v>
@@ -3326,7 +3314,7 @@
         <v>232</v>
       </c>
       <c r="I34" s="7">
-        <v>114401</v>
+        <v>106735</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>232</v>
@@ -3341,7 +3329,7 @@
         <v>381</v>
       </c>
       <c r="N34" s="7">
-        <v>202024</v>
+        <v>190972</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>235</v>
@@ -3362,46 +3350,46 @@
         <v>111</v>
       </c>
       <c r="D35" s="7">
-        <v>88199</v>
+        <v>86017</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>151</v>
       </c>
       <c r="I35" s="7">
-        <v>105286</v>
+        <v>98268</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>262</v>
       </c>
       <c r="N35" s="7">
-        <v>193485</v>
+        <v>184285</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,46 +3401,46 @@
         <v>87</v>
       </c>
       <c r="D36" s="7">
-        <v>80928</v>
+        <v>79465</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>63</v>
       </c>
       <c r="I36" s="7">
-        <v>45361</v>
+        <v>42311</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>150</v>
       </c>
       <c r="N36" s="7">
-        <v>126289</v>
+        <v>121776</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,73 +3452,73 @@
         <v>21</v>
       </c>
       <c r="D37" s="7">
-        <v>18205</v>
+        <v>17770</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
       </c>
       <c r="I37" s="7">
-        <v>10018</v>
+        <v>9206</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
       </c>
       <c r="N37" s="7">
-        <v>28223</v>
+        <v>26976</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>2269</v>
+        <v>2147</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>265</v>
+        <v>137</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>265</v>
@@ -3539,22 +3527,22 @@
         <v>42</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
       </c>
       <c r="N38" s="7">
-        <v>2824</v>
+        <v>2683</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>269</v>
+        <v>95</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,51 +3554,51 @@
         <v>371</v>
       </c>
       <c r="D39" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>460</v>
       </c>
       <c r="I39" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>831</v>
       </c>
       <c r="N39" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3619,46 +3607,46 @@
         <v>255</v>
       </c>
       <c r="D40" s="7">
-        <v>250773</v>
+        <v>245683</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H40" s="7">
         <v>438</v>
       </c>
       <c r="I40" s="7">
-        <v>401839</v>
+        <v>474629</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M40" s="7">
         <v>693</v>
       </c>
       <c r="N40" s="7">
-        <v>652612</v>
+        <v>720311</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,46 +3658,46 @@
         <v>195</v>
       </c>
       <c r="D41" s="7">
-        <v>198977</v>
+        <v>196259</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H41" s="7">
         <v>303</v>
       </c>
       <c r="I41" s="7">
-        <v>221916</v>
+        <v>207281</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M41" s="7">
         <v>498</v>
       </c>
       <c r="N41" s="7">
-        <v>420893</v>
+        <v>403540</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,46 +3709,46 @@
         <v>107</v>
       </c>
       <c r="D42" s="7">
-        <v>126748</v>
+        <v>130351</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H42" s="7">
         <v>174</v>
       </c>
       <c r="I42" s="7">
-        <v>141802</v>
+        <v>131181</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M42" s="7">
         <v>281</v>
       </c>
       <c r="N42" s="7">
-        <v>268550</v>
+        <v>261531</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,94 +3760,94 @@
         <v>32</v>
       </c>
       <c r="D43" s="7">
-        <v>37541</v>
+        <v>38484</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>299</v>
+        <v>209</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H43" s="7">
         <v>32</v>
       </c>
       <c r="I43" s="7">
-        <v>28276</v>
+        <v>26499</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M43" s="7">
         <v>64</v>
       </c>
       <c r="N43" s="7">
-        <v>65817</v>
+        <v>64983</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7">
         <v>9</v>
       </c>
       <c r="D44" s="7">
-        <v>12837</v>
+        <v>12669</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H44" s="7">
         <v>11</v>
       </c>
       <c r="I44" s="7">
-        <v>8824</v>
+        <v>8226</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M44" s="7">
         <v>20</v>
       </c>
       <c r="N44" s="7">
-        <v>21661</v>
+        <v>20895</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>311</v>
@@ -3874,46 +3862,46 @@
         <v>598</v>
       </c>
       <c r="D45" s="7">
-        <v>626875</v>
+        <v>623445</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>958</v>
       </c>
       <c r="I45" s="7">
-        <v>802658</v>
+        <v>847815</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>1556</v>
       </c>
       <c r="N45" s="7">
-        <v>1429533</v>
+        <v>1471260</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,7 +3915,7 @@
         <v>177</v>
       </c>
       <c r="D46" s="7">
-        <v>169844</v>
+        <v>143803</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>313</v>
@@ -3942,7 +3930,7 @@
         <v>302</v>
       </c>
       <c r="I46" s="7">
-        <v>220789</v>
+        <v>185346</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>316</v>
@@ -3957,7 +3945,7 @@
         <v>479</v>
       </c>
       <c r="N46" s="7">
-        <v>390633</v>
+        <v>329149</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>319</v>
@@ -3978,7 +3966,7 @@
         <v>223</v>
       </c>
       <c r="D47" s="7">
-        <v>224439</v>
+        <v>190408</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>322</v>
@@ -3993,7 +3981,7 @@
         <v>369</v>
       </c>
       <c r="I47" s="7">
-        <v>301740</v>
+        <v>249154</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>325</v>
@@ -4008,7 +3996,7 @@
         <v>592</v>
       </c>
       <c r="N47" s="7">
-        <v>526178</v>
+        <v>439562</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>328</v>
@@ -4029,7 +4017,7 @@
         <v>232</v>
       </c>
       <c r="D48" s="7">
-        <v>251176</v>
+        <v>213351</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>331</v>
@@ -4038,37 +4026,37 @@
         <v>332</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>242</v>
+        <v>333</v>
       </c>
       <c r="H48" s="7">
         <v>292</v>
       </c>
       <c r="I48" s="7">
-        <v>250417</v>
+        <v>206462</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M48" s="7">
         <v>524</v>
       </c>
       <c r="N48" s="7">
-        <v>501593</v>
+        <v>419814</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,64 +4068,64 @@
         <v>76</v>
       </c>
       <c r="D49" s="7">
-        <v>94947</v>
+        <v>80187</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H49" s="7">
         <v>70</v>
       </c>
       <c r="I49" s="7">
-        <v>67484</v>
+        <v>54395</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M49" s="7">
         <v>146</v>
       </c>
       <c r="N49" s="7">
-        <v>162431</v>
+        <v>134582</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="7">
         <v>54</v>
       </c>
       <c r="D50" s="7">
-        <v>119022</v>
+        <v>300971</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>349</v>
+        <v>291</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>350</v>
@@ -4146,7 +4134,7 @@
         <v>29</v>
       </c>
       <c r="I50" s="7">
-        <v>28004</v>
+        <v>22375</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>351</v>
@@ -4161,7 +4149,7 @@
         <v>83</v>
       </c>
       <c r="N50" s="7">
-        <v>147026</v>
+        <v>323346</v>
       </c>
       <c r="O50" s="7" t="s">
         <v>354</v>
@@ -4182,46 +4170,46 @@
         <v>762</v>
       </c>
       <c r="D51" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H51" s="7">
         <v>1062</v>
       </c>
       <c r="I51" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M51" s="7">
         <v>1824</v>
       </c>
       <c r="N51" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,7 +4223,7 @@
         <v>994</v>
       </c>
       <c r="D52" s="7">
-        <v>864839</v>
+        <v>820511</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>357</v>
@@ -4250,7 +4238,7 @@
         <v>1743</v>
       </c>
       <c r="I52" s="7">
-        <v>1182155</v>
+        <v>1180791</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>360</v>
@@ -4265,7 +4253,7 @@
         <v>2737</v>
       </c>
       <c r="N52" s="7">
-        <v>2046994</v>
+        <v>2001302</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>363</v>
@@ -4286,7 +4274,7 @@
         <v>1118</v>
       </c>
       <c r="D53" s="7">
-        <v>1064746</v>
+        <v>1017634</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>366</v>
@@ -4301,25 +4289,25 @@
         <v>1940</v>
       </c>
       <c r="I53" s="7">
-        <v>1320327</v>
+        <v>1202105</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>249</v>
+        <v>369</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M53" s="7">
         <v>3058</v>
       </c>
       <c r="N53" s="7">
-        <v>2385073</v>
+        <v>2219740</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>371</v>
+        <v>229</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>372</v>
@@ -4337,7 +4325,7 @@
         <v>990</v>
       </c>
       <c r="D54" s="7">
-        <v>1073296</v>
+        <v>1069325</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>374</v>
@@ -4352,7 +4340,7 @@
         <v>1392</v>
       </c>
       <c r="I54" s="7">
-        <v>1061610</v>
+        <v>1062957</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>377</v>
@@ -4367,16 +4355,16 @@
         <v>2382</v>
       </c>
       <c r="N54" s="7">
-        <v>2134906</v>
+        <v>2132282</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>380</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,10 +4376,10 @@
         <v>198</v>
       </c>
       <c r="D55" s="7">
-        <v>239094</v>
+        <v>227669</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>382</v>
+        <v>254</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>383</v>
@@ -4403,82 +4391,82 @@
         <v>214</v>
       </c>
       <c r="I55" s="7">
-        <v>182282</v>
+        <v>161779</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>385</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>386</v>
+        <v>257</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="M55" s="7">
         <v>412</v>
       </c>
       <c r="N55" s="7">
-        <v>421377</v>
+        <v>389448</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>389</v>
+        <v>176</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="7">
         <v>71</v>
       </c>
       <c r="D56" s="7">
-        <v>138851</v>
+        <v>320293</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H56" s="7">
         <v>59</v>
       </c>
       <c r="I56" s="7">
-        <v>50135</v>
+        <v>43380</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M56" s="7">
         <v>130</v>
       </c>
       <c r="N56" s="7">
-        <v>188986</v>
+        <v>363673</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>397</v>
+        <v>260</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,51 +4478,51 @@
         <v>3371</v>
       </c>
       <c r="D57" s="7">
-        <v>3380826</v>
+        <v>3455432</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H57" s="7">
         <v>5348</v>
       </c>
       <c r="I57" s="7">
-        <v>3796510</v>
+        <v>3651012</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M57" s="7">
         <v>8719</v>
       </c>
       <c r="N57" s="7">
-        <v>7177336</v>
+        <v>7106444</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
